--- a/data/trans_bre/P1421-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P1421-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>4.640699770437906</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8.434631748421696</v>
+        <v>8.434631748421694</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5033606141344259</v>
@@ -649,7 +649,7 @@
         <v>1.963682651750519</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>1.152333678443206</v>
+        <v>1.152333678443205</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.2964680047370279</v>
+        <v>-0.263577289862166</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.501857332036816</v>
+        <v>3.47314249945231</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.971946802665462</v>
+        <v>2.884723223085213</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4.549986103124881</v>
+        <v>4.934032777029406</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.06594461071612791</v>
+        <v>-0.04276524395376889</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>1.481375202832077</v>
+        <v>1.446995714005076</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9278445445717538</v>
+        <v>0.9237309391419878</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.4477671180740088</v>
+        <v>0.4698495577962405</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.298548952346701</v>
+        <v>4.263168791460252</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.911369021980507</v>
+        <v>7.039718365869136</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.449134716201625</v>
+        <v>6.538003883180757</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12.08938070758219</v>
+        <v>11.9779399732986</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.487946988796693</v>
+        <v>1.484075505970104</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>6.456287100143835</v>
+        <v>6.486717904247132</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3.69970095928127</v>
+        <v>3.942819836270649</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2.148393407870718</v>
+        <v>2.294561289898162</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>4.732480624444841</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7.158558090459323</v>
+        <v>7.158558090459325</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>3.532086664726529</v>
@@ -749,7 +749,7 @@
         <v>4.361138956536597</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>2.146631596375359</v>
+        <v>2.14663159637536</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3.392451470931372</v>
+        <v>3.406154158116083</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.523997215709405</v>
+        <v>2.465539857390952</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3.181598172109732</v>
+        <v>3.147633232857055</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5.214691623542681</v>
+        <v>5.275030623948288</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>1.591965158965456</v>
+        <v>1.62353036338922</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>2.15035881153965</v>
+        <v>1.975636703159239</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>1.785309756762873</v>
+        <v>1.707540623758024</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>1.174601862056689</v>
+        <v>1.201881995808565</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>6.636755754069585</v>
+        <v>6.713897449589671</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>5.198092896553056</v>
+        <v>5.229122633117295</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6.523097650128365</v>
+        <v>6.378571307482801</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9.1341938688241</v>
+        <v>9.266812572281543</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>7.170467939927995</v>
+        <v>7.403701165721053</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>15.36960281973568</v>
+        <v>15.5980424750149</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>11.5989891520386</v>
+        <v>9.905330505289758</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>3.606107302487719</v>
+        <v>3.769251641982939</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>2.537886028015389</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6.01935531882225</v>
+        <v>6.019355318822249</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8511205988659788</v>
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4820980404326621</v>
+        <v>0.4149311087074594</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6994946936016478</v>
+        <v>0.9076605228564896</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.240904546333463</v>
+        <v>1.32580345551556</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.812861864324176</v>
+        <v>4.166934585799793</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1065605786862817</v>
+        <v>0.1105802849379563</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2410774401839976</v>
+        <v>0.3461012141384047</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7399215050924514</v>
+        <v>0.7242583942270633</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.8209144143876427</v>
+        <v>0.8838802755445907</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.685182344211249</v>
+        <v>3.424126550625549</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.149275255158743</v>
+        <v>4.274192350893919</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.010605565098569</v>
+        <v>4.203204553220365</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.071394705205314</v>
+        <v>8.141420317387729</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>2.196767086057263</v>
+        <v>2.185176822224941</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>3.351156690336319</v>
+        <v>3.461876074202332</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>9.142039338856891</v>
+        <v>9.995056853797351</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>2.960567513795608</v>
+        <v>2.963085527578492</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>3.145044684813526</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6.531925646938635</v>
+        <v>6.531925646938633</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>1.549237497029447</v>
@@ -949,7 +949,7 @@
         <v>3.658264788259796</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>1.318908662836115</v>
+        <v>1.318908662836114</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.705782099236126</v>
+        <v>1.517487480989093</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.016631823777631</v>
+        <v>3.054659587793968</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.314345115059159</v>
+        <v>1.321349718398289</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4.113355572986585</v>
+        <v>4.025047831573373</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3221377734880669</v>
+        <v>0.3219650174044549</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>2.326564919594007</v>
+        <v>2.836316660219071</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5052244062282956</v>
+        <v>0.4965016151877134</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.6641540221678524</v>
+        <v>0.6668549368569546</v>
       </c>
     </row>
     <row r="15">
@@ -992,26 +992,26 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>8.55962987131181</v>
+        <v>8.534881258181445</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.579936710928405</v>
+        <v>7.740918439552702</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.348162643333152</v>
+        <v>5.353302247695253</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8.996029286446939</v>
+        <v>9.094489987639832</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>4.020011675143026</v>
+        <v>4.153091059260382</v>
       </c>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>18.3677960304902</v>
+        <v>16.71524907162256</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>2.295130815073576</v>
+        <v>2.360818809491966</v>
       </c>
     </row>
     <row r="16">
@@ -1035,7 +1035,7 @@
         <v>4.036542446984729</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6.941220409269066</v>
+        <v>6.941220409269068</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>1.396722502653099</v>
@@ -1047,7 +1047,7 @@
         <v>2.839080778686648</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>1.569110515317445</v>
+        <v>1.569110515317446</v>
       </c>
     </row>
     <row r="17">
@@ -1058,28 +1058,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.379502468955886</v>
+        <v>2.359642237157419</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.258115275823808</v>
+        <v>3.247774279996801</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.203783452850799</v>
+        <v>3.146820647967357</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5.849603839013873</v>
+        <v>5.661650645205047</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8260823352416395</v>
+        <v>0.7964238665972164</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>2.153187951803325</v>
+        <v>2.001893113695779</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>1.78902414177346</v>
+        <v>1.756889755679224</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>1.149813326477228</v>
+        <v>1.099527520197871</v>
       </c>
     </row>
     <row r="18">
@@ -1090,28 +1090,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.359465244106961</v>
+        <v>4.352395689665412</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.885598337160005</v>
+        <v>4.953762690257874</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.107603060680782</v>
+        <v>5.015283187315318</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.129253684278847</v>
+        <v>8.007009115012988</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2.180872698431454</v>
+        <v>2.118844970682319</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>5.257032993216261</v>
+        <v>5.012341795502948</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>4.507128660229709</v>
+        <v>4.315718695594583</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>2.118500570562134</v>
+        <v>2.089135566451521</v>
       </c>
     </row>
     <row r="19">
